--- a/数据整理/stocks/A股/上证主板/600633-浙数文化.xlsx
+++ b/数据整理/stocks/A股/上证主板/600633-浙数文化.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>92.94</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.50</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -576,15 +606,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.30</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.93</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2036</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -604,15 +644,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.56</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.40</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -632,15 +682,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>94.56</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1.40</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600633-浙数文化.xlsx
+++ b/数据整理/stocks/A股/上证主板/600633-浙数文化.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600633-浙数文化.xlsx
+++ b/数据整理/stocks/A股/上证主板/600633-浙数文化.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -716,7 +717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -727,17 +728,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -747,14 +768,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.23</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
@@ -763,13 +858,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.09</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600633-浙数文化.xlsx
+++ b/数据整理/stocks/A股/上证主板/600633-浙数文化.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -811,7 +812,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -822,17 +823,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -842,14 +863,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>005585</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河文体娱乐主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2277</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="3">
@@ -858,14 +953,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.23</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -874,13 +969,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.09</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600633-浙数文化.xlsx
+++ b/数据整理/stocks/A股/上证主板/600633-浙数文化.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,91 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161030</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国中证体育产业指数</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.94</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0918</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.09</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -548,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,7 +575,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -599,112 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161030</t>
+          <t>005585</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国中证体育产业指数</t>
+          <t>银河文体娱乐主题灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>5.54</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>74.07</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2036</t>
+          <t>0.2277</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009726</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>招商中证500等权重指数增强A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.56</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0186</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009727</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>招商中证500等权重指数增强C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.56</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0048</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -812,7 +742,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -833,7 +763,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -863,36 +793,112 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005585</t>
+          <t>161030</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银河文体娱乐主题灵活配置混合</t>
+          <t>富国中证体育产业指数</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.54</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>74.07</t>
+          <t>94.30</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2277</t>
+          <t>0.2036</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009726</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009727</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -906,96 +912,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.09</v>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600633-浙数文化.xlsx
+++ b/数据整理/stocks/A股/上证主板/600633-浙数文化.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.23</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.23</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -605,36 +622,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005585</t>
+          <t>005632</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银河文体娱乐主题灵活配置混合</t>
+          <t>鹏华量化先锋混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.54</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>74.07</t>
+          <t>92.57</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2277</t>
+          <t>0.0491</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -699,36 +716,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>080007</t>
+          <t>005585</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>长盛同鑫行业配置混合</t>
+          <t>银河文体娱乐主题灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>5.54</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.27</t>
+          <t>74.07</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0110</t>
+          <t>0.2277</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -737,6 +754,100 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -906,7 +1017,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600633-浙数文化.xlsx
+++ b/数据整理/stocks/A股/上证主板/600633-浙数文化.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.23</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.23</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -571,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -622,36 +639,150 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005632</t>
+          <t>009447</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华量化先锋混合</t>
+          <t>财通资管科技创新一年定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>9.13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.57</t>
+          <t>94.71</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0491</t>
+          <t>0.3606</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>016563</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>350005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天治中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -716,36 +847,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005585</t>
+          <t>005632</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银河文体娱乐主题灵活配置混合</t>
+          <t>鹏华量化先锋混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.54</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>74.07</t>
+          <t>92.57</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2277</t>
+          <t>0.0491</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -810,36 +941,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>080007</t>
+          <t>005585</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>长盛同鑫行业配置混合</t>
+          <t>银河文体娱乐主题灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>5.54</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.27</t>
+          <t>74.07</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0110</t>
+          <t>0.2277</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -848,6 +979,100 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1017,7 +1242,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
